--- a/backend/data/Datenarten_BP6_5.xlsx
+++ b/backend/data/Datenarten_BP6_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Schilcher\Documents\Studium Bioprozessinformatik\6. Sem SS22\Projektstudium\benchmark-system-gb\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdrianWild\Dev\Benchmark\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9306C9A3-658F-438B-9F34-AD68BBAC7784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE1E736-6DC5-4CDA-93DB-02AE2F13E214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21528" yWindow="1032" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -2622,29 +2622,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="2"/>
-    <col min="6" max="6" width="28.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="64.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="2"/>
-    <col min="10" max="10" width="12.7265625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="11.26953125" style="2"/>
-    <col min="13" max="14" width="11.26953125" style="3"/>
-    <col min="15" max="15" width="17.453125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="11.26953125" style="3"/>
+    <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2"/>
+    <col min="6" max="6" width="28.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="64.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="2"/>
+    <col min="10" max="10" width="12.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" style="2"/>
+    <col min="13" max="14" width="11.28515625" style="3"/>
+    <col min="15" max="15" width="17.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="11.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>419</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>375</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>42</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>433</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>61</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>260</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>46</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>57</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>56</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>350</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>351</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>58</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>58</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>63</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>63</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>63</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>73</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>78</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>80</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>81</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>81</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>263</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>264</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>265</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>266</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>87</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>100</v>
       </c>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>111</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>104</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>270</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>271</v>
       </c>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>272</v>
       </c>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>273</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>115</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>115</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>118</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>139</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>122</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>140</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>140</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>142</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>142</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>211</v>
       </c>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>219</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>143</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>148</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>150</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>152</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>160</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>674</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>675</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>676</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>172</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>173</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>174</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>177</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>179</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>180</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>181</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>182</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>207</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>183</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>183</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>187</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>188</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>189</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>191</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>192</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>196</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>199</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>200</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>202</v>
       </c>
@@ -4671,12 +4671,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>336</v>
       </c>
@@ -4835,9 +4835,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>312</v>
       </c>
@@ -4855,12 +4855,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>227</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>337</v>
       </c>
@@ -4876,27 +4876,27 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -4910,29 +4910,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" customWidth="1"/>
-    <col min="16" max="16" width="27.81640625" customWidth="1"/>
-    <col min="17" max="17" width="14.1796875" customWidth="1"/>
-    <col min="18" max="18" width="24.453125" customWidth="1"/>
-    <col min="19" max="19" width="18.54296875" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" customWidth="1"/>
-    <col min="21" max="21" width="10.90625" customWidth="1"/>
-    <col min="24" max="24" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="str">
         <f>Basis!A3</f>
         <v>GWH Art</v>
@@ -5037,7 +5037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>367</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="15" t="s">
         <v>371</v>
@@ -5342,7 +5342,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="15" t="s">
         <v>372</v>
@@ -5390,7 +5390,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
@@ -5430,7 +5430,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -5464,7 +5464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -5498,7 +5498,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -5528,7 +5528,7 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -5556,7 +5556,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -5584,7 +5584,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -5610,7 +5610,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -5636,7 +5636,7 @@
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5662,7 +5662,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -5688,7 +5688,7 @@
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -5714,7 +5714,7 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -5740,7 +5740,7 @@
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -5766,7 +5766,7 @@
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -5792,7 +5792,7 @@
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -5818,7 +5818,7 @@
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -5844,7 +5844,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -5870,7 +5870,7 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -5896,7 +5896,7 @@
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -5922,7 +5922,7 @@
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -5948,7 +5948,7 @@
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -5974,10 +5974,10 @@
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F28" s="15"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34" t="s">
         <v>322</v>
       </c>
@@ -5991,20 +5991,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" customWidth="1"/>
-    <col min="4" max="4" width="90.1796875" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
-    <col min="9" max="10" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="90.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="9" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -6033,17 +6033,17 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>527</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="31" t="s">
         <v>376</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="31" t="s">
         <v>377</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="31" t="s">
         <v>379</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="31" t="s">
         <v>381</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" s="31" t="s">
         <v>382</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" s="31" t="s">
         <v>383</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="31" t="s">
         <v>384</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="31" t="s">
         <v>436</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="31" t="s">
         <v>447</v>
       </c>
@@ -6126,12 +6126,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>341</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="31" t="s">
         <v>339</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C37" s="31" t="s">
         <v>357</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C38" s="31" t="s">
         <v>347</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" s="33" t="s">
         <v>348</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C40" s="33" t="s">
         <v>358</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C41" s="31" t="s">
         <v>388</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C42" s="31" t="s">
         <v>389</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C43" s="31" t="s">
         <v>390</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C44" s="31" t="s">
         <v>391</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C45" s="31" t="s">
         <v>392</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C46" s="31" t="s">
         <v>393</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C47" s="31" t="s">
         <v>394</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C48" s="31" t="s">
         <v>395</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C49" s="31" t="s">
         <v>396</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C50" s="31" t="s">
         <v>397</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C51" s="31" t="s">
         <v>398</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C52" s="31" t="s">
         <v>399</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="32" t="s">
         <v>356</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C54" s="34" t="s">
         <v>339</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C55" s="34" t="s">
         <v>357</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C56" s="34" t="s">
         <v>347</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C57" s="34" t="s">
         <v>348</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C58" s="34" t="s">
         <v>358</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C59" s="34" t="s">
         <v>388</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C60" s="34" t="s">
         <v>389</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C61" s="34" t="s">
         <v>390</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C62" s="34" t="s">
         <v>391</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C63" s="34" t="s">
         <v>392</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C64" s="34" t="s">
         <v>393</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C65" s="34" t="s">
         <v>394</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C66" s="34" t="s">
         <v>395</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C67" s="34" t="s">
         <v>396</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C68" s="34" t="s">
         <v>397</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C69" s="34" t="s">
         <v>398</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C70" s="34" t="s">
         <v>399</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>342</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C72" s="34" t="s">
         <v>357</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>343</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C74" s="34" t="s">
         <v>357</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>31</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C78" s="31" t="s">
         <v>411</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C79" s="31" t="s">
         <v>416</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C80" s="31" t="s">
         <v>415</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>41</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>42</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C87" s="30" t="s">
         <v>429</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>260</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C90" s="31" t="s">
         <v>452</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C91" s="31" t="s">
         <v>453</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>474</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>479</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>475</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C96" s="15" t="s">
         <v>480</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" s="15" t="s">
         <v>481</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" s="15" t="s">
         <v>482</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" s="15" t="s">
         <v>483</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" s="15" t="s">
         <v>484</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C101" s="15" t="s">
         <v>485</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" s="15" t="s">
         <v>486</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" s="15" t="s">
         <v>487</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C104" s="15" t="s">
         <v>488</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C105" s="15" t="s">
         <v>508</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C106" s="15" t="s">
         <v>489</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="107" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C107" s="15" t="s">
         <v>490</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="108" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C108" s="15" t="s">
         <v>491</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C109" s="15" t="s">
         <v>492</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="110" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C110" s="15" t="s">
         <v>493</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="111" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C111" s="15" t="s">
         <v>494</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="112" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C112" s="15" t="s">
         <v>495</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C113" s="15" t="s">
         <v>496</v>
       </c>
@@ -7682,22 +7682,22 @@
         <v>506</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C114" s="26" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C115" s="26" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C116" s="26" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>523</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>524</v>
       </c>
@@ -7713,13 +7713,13 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="24" t="s">
         <v>529</v>
       </c>
       <c r="B119" s="24"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>230</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>458</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>460</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>63</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>468</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>467</v>
       </c>
@@ -7788,12 +7788,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>231</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="27"/>
       <c r="B131" s="27"/>
       <c r="C131" s="27" t="s">
@@ -7817,7 +7817,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="27"/>
       <c r="B132" s="27"/>
       <c r="C132" s="27" t="s">
@@ -7827,12 +7827,12 @@
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>88</v>
       </c>
@@ -7852,7 +7852,7 @@
       <c r="I135" s="28"/>
       <c r="J135" s="28"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="36" t="s">
@@ -7870,7 +7870,7 @@
       <c r="I136" s="28"/>
       <c r="J136" s="28"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="28"/>
       <c r="B137" s="28"/>
       <c r="C137" s="36" t="s">
@@ -7888,7 +7888,7 @@
       <c r="I137" s="28"/>
       <c r="J137" s="28"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="28"/>
       <c r="B138" s="28"/>
       <c r="C138" s="36" t="s">
@@ -7906,7 +7906,7 @@
       <c r="I138" s="28"/>
       <c r="J138" s="28"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="28"/>
       <c r="B139" s="28"/>
       <c r="C139" s="36" t="s">
@@ -7922,7 +7922,7 @@
       <c r="I139" s="28"/>
       <c r="J139" s="28"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="28"/>
       <c r="B140" s="28"/>
       <c r="C140" s="36" t="s">
@@ -7940,7 +7940,7 @@
       <c r="I140" s="28"/>
       <c r="J140" s="28"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="36" t="s">
@@ -7958,7 +7958,7 @@
       <c r="I141" s="28"/>
       <c r="J141" s="28"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="28"/>
       <c r="B142" s="28"/>
       <c r="C142" s="36" t="s">
@@ -7976,7 +7976,7 @@
       <c r="I142" s="28"/>
       <c r="J142" s="28"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="28"/>
       <c r="B143" s="28"/>
       <c r="C143" s="36" t="s">
@@ -7994,7 +7994,7 @@
       <c r="I143" s="28"/>
       <c r="J143" s="28"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="28"/>
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
@@ -8006,7 +8006,7 @@
       <c r="I144" s="28"/>
       <c r="J144" s="28"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="28"/>
       <c r="B145" s="28" t="s">
         <v>100</v>
@@ -8024,7 +8024,7 @@
       <c r="I145" s="28"/>
       <c r="J145" s="28"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="28"/>
       <c r="B146" s="28"/>
       <c r="C146" s="31" t="s">
@@ -8044,7 +8044,7 @@
       <c r="I146" s="28"/>
       <c r="J146" s="28"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="28"/>
       <c r="B147" s="28"/>
       <c r="C147" s="31" t="s">
@@ -8065,7 +8065,7 @@
       <c r="I147" s="28"/>
       <c r="J147" s="28"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="28"/>
       <c r="B148" s="28"/>
       <c r="C148" s="31" t="s">
@@ -8085,7 +8085,7 @@
       <c r="I148" s="28"/>
       <c r="J148" s="28"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="31" t="s">
@@ -8105,7 +8105,7 @@
       <c r="I149" s="28"/>
       <c r="J149" s="28"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C150" s="31" t="s">
         <v>558</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C151" s="31" t="s">
         <v>559</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C152" s="31" t="s">
         <v>560</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C153" s="31" t="s">
         <v>561</v>
       </c>
@@ -8161,7 +8161,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C154" s="31" t="s">
         <v>114</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
       <c r="E154" s="28"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C155" s="31" t="s">
         <v>566</v>
       </c>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="E155" s="28"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C156" s="31" t="s">
         <v>570</v>
       </c>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="E156" s="28"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C157" s="31" t="s">
         <v>563</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C158" s="31" t="s">
         <v>564</v>
       </c>
@@ -8204,12 +8204,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>116</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C163" s="31" t="s">
         <v>576</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C164" s="31" t="s">
         <v>577</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>582</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>580</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C170" s="31" t="s">
         <v>124</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C171" s="31" t="s">
         <v>123</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C172" s="31" t="s">
         <v>327</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C173" s="31" t="s">
         <v>155</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C174" s="31" t="s">
         <v>331</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C175" s="31" t="s">
         <v>328</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C176" s="31" t="s">
         <v>329</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C177" s="31" t="s">
         <v>330</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C178" s="31" t="s">
         <v>332</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C179" s="31" t="s">
         <v>333</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C180" s="31" t="s">
         <v>334</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>587</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C183" s="31" t="s">
         <v>125</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C184" s="31" t="s">
         <v>126</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C185" s="31" t="s">
         <v>127</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C186" s="31" t="s">
         <v>128</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C187" s="31" t="s">
         <v>129</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C188" s="31" t="s">
         <v>130</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C189" s="31" t="s">
         <v>317</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C190" s="31" t="s">
         <v>131</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C191" s="31" t="s">
         <v>326</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C192" s="31" t="s">
         <v>132</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C193" s="31" t="s">
         <v>133</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C194" s="31" t="s">
         <v>134</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C195" s="31" t="s">
         <v>135</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C196" s="31" t="s">
         <v>136</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C197" s="31" t="s">
         <v>137</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C198" s="31" t="s">
         <v>138</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C199" s="31" t="s">
         <v>314</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C200" s="31" t="s">
         <v>315</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C201" s="31" t="s">
         <v>316</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C202" s="31" t="s">
         <v>318</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C203" s="31" t="s">
         <v>319</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C204" s="31" t="s">
         <v>320</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C205" s="31" t="s">
         <v>321</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C206" s="31" t="s">
         <v>323</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C207" s="31" t="s">
         <v>324</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C208" s="31" t="s">
         <v>325</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>589</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C213" s="31" t="s">
         <v>140</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C214" s="31" t="s">
         <v>142</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>211</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C218" s="31" t="s">
         <v>220</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C219" s="31" t="s">
         <v>217</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C220" s="31" t="s">
         <v>213</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C221" s="31" t="s">
         <v>214</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C222" s="31" t="s">
         <v>212</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C223" s="31" t="s">
         <v>215</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C224" s="31" t="s">
         <v>216</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C225" s="31" t="s">
         <v>218</v>
       </c>
@@ -8670,12 +8670,12 @@
         <v>594</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>144</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>597</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C230" s="31" t="s">
         <v>599</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>601</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C232" s="31" t="s">
         <v>602</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>606</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C235" s="31" t="s">
         <v>608</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C236" s="31" t="s">
         <v>609</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C237" s="31" t="s">
         <v>612</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C238" s="31" t="s">
         <v>614</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C239" s="31" t="s">
         <v>615</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C240" s="31" t="s">
         <v>616</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C241" s="31" t="s">
         <v>617</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C242" s="31" t="s">
         <v>618</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C243" s="31" t="s">
         <v>619</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C244" s="31" t="s">
         <v>620</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>621</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C247" s="31" t="s">
         <v>626</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C248" s="31" t="s">
         <v>628</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C249" s="31" t="s">
         <v>629</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C250" s="31" t="s">
         <v>630</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>634</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C253" s="31" t="s">
         <v>636</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C254" s="31" t="s">
         <v>637</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C255" s="31" t="s">
         <v>638</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C256" s="31" t="s">
         <v>639</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>642</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C259" s="31" t="s">
         <v>644</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C260" s="31" t="s">
         <v>645</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C261" s="31" t="s">
         <v>646</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>183</v>
       </c>
@@ -8944,12 +8944,12 @@
         <v>652</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C264" s="31" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>187</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C267" s="31" t="s">
         <v>655</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C268" s="31" t="s">
         <v>656</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C269" s="31" t="s">
         <v>657</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C270" s="31" t="s">
         <v>658</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C271" s="31" t="s">
         <v>659</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>662</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C274" s="31" t="s">
         <v>664</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>667</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C277" s="30" t="s">
         <v>670</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>671</v>
       </c>
@@ -9063,12 +9063,12 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>339</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>0.17069999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>357</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>1.5641297000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -9100,27 +9100,27 @@
         <v>14.365981</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>392</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>393</v>
       </c>
@@ -9136,27 +9136,27 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>398</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>399</v>
       </c>
@@ -9172,42 +9172,42 @@
         <v>2.7889699999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>157</v>
       </c>
